--- a/data/georgia_census/qvemo-qartli/tetriwyaro/average_wages.xlsx
+++ b/data/georgia_census/qvemo-qartli/tetriwyaro/average_wages.xlsx
@@ -1107,13 +1107,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF628CC3-6524-4600-A086-D8B410FC4F5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8179156F-E0C1-483D-834C-F661F351B040}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FD2CA3-13A5-46DE-BBC5-3BFFBEFA8943}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CC0CAFC-78D1-43B8-B98A-E2A95D672684}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AD97C99-7060-49C3-B8A1-6551CB3E232F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547A629A-6D39-4E19-AC75-72B454D22362}"/>
 </file>